--- a/Banco de Dados/Modelagem/MODELO-FISICO-HROADS.xlsx
+++ b/Banco de Dados/Modelagem/MODELO-FISICO-HROADS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C766D4DA-8D01-4AF5-B509-CD8B4D3E9340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -141,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,12 +354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -381,15 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,15 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,6 +394,36 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,13 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +454,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,9 +492,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,26 +527,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,26 +562,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,210 +737,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="6" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="I2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
+    <row r="4" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>100</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>80</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>44418</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="31">
         <v>43695</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="28">
+      <c r="L4" s="23">
         <v>1</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+    <row r="5" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>70</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>100</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>44418</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="31">
         <v>42446</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="28">
+      <c r="L5" s="23">
         <v>2</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="N5" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="33">
         <v>75</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="33">
         <v>60</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="34">
         <v>44418</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="35">
         <v>43177</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="28">
+      <c r="L6" s="23">
         <v>3</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -988,117 +948,117 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>4</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="32">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I8" s="10">
+      <c r="N7" s="27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>6</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="40" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>7</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="59">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
         <v>1</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="49">
+      <c r="E11" s="41">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="59">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
         <v>2</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="49">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="49">
+      <c r="E12" s="41">
         <v>2</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="42">
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
@@ -1106,24 +1066,24 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="59">
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48">
         <v>3</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <v>2</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="49">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="49">
+      <c r="E13" s="41">
         <v>3</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="42">
         <v>3</v>
       </c>
       <c r="H13" s="4"/>
@@ -1131,24 +1091,24 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="59">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="48">
         <v>4</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>3</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="49">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="51">
+      <c r="E14" s="43">
         <v>4</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="45">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
@@ -1156,35 +1116,70 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
         <v>5</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63">
+      <c r="B15" s="18"/>
+      <c r="C15" s="49">
         <v>3</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="K15" s="63"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2</v>
+      </c>
+      <c r="C16" s="49">
+        <v>4</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>7</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49">
+        <v>5</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="49">
+        <v>6</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>9</v>
+      </c>
+      <c r="B19" s="50">
+        <v>3</v>
+      </c>
+      <c r="C19" s="51">
+        <v>7</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1199,24 +1194,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
